--- a/Code/Results/Cases/Case_0_66/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_66/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1684603860128391</v>
+        <v>0.05040950907422825</v>
       </c>
       <c r="D2">
-        <v>0.06327765879916569</v>
+        <v>0.01094241228024373</v>
       </c>
       <c r="E2">
-        <v>10.73623489349242</v>
+        <v>2.60570920787319</v>
       </c>
       <c r="F2">
-        <v>0.9351854647412949</v>
+        <v>0.3535886159855934</v>
       </c>
       <c r="G2">
-        <v>0.0006787483714468789</v>
+        <v>0.002349316804360842</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>40.50325289219705</v>
+        <v>10.73766856433434</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.979851579911752</v>
+        <v>1.045566560175445</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1422791544649442</v>
+        <v>0.04465626906139164</v>
       </c>
       <c r="D3">
-        <v>0.04688369636743772</v>
+        <v>0.009650969053296876</v>
       </c>
       <c r="E3">
-        <v>8.534315646568302</v>
+        <v>2.268374438788129</v>
       </c>
       <c r="F3">
-        <v>0.6843437495856435</v>
+        <v>0.3559578068447848</v>
       </c>
       <c r="G3">
-        <v>0.0006979140094638452</v>
+        <v>0.002355671204779274</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>32.82733551712698</v>
+        <v>9.382611207486832</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.096623980874057</v>
+        <v>1.071878505284758</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1272144735950889</v>
+        <v>0.04114654460288136</v>
       </c>
       <c r="D4">
-        <v>0.03922322956044511</v>
+        <v>0.008877739012717711</v>
       </c>
       <c r="E4">
-        <v>7.428599018953236</v>
+        <v>2.061642785782851</v>
       </c>
       <c r="F4">
-        <v>0.5662106439230854</v>
+        <v>0.3586509693295596</v>
       </c>
       <c r="G4">
-        <v>0.0007083817146310564</v>
+        <v>0.002359727480142701</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>28.83918508329549</v>
+        <v>8.549468863310494</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.69223975252828</v>
+        <v>1.092498922142084</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1212452650103018</v>
+        <v>0.03972176177171605</v>
       </c>
       <c r="D5">
-        <v>0.03645518641202727</v>
+        <v>0.008567236292073233</v>
       </c>
       <c r="E5">
-        <v>7.013462314077941</v>
+        <v>1.977468670141349</v>
       </c>
       <c r="F5">
-        <v>0.5237434081616001</v>
+        <v>0.3600501848854591</v>
       </c>
       <c r="G5">
-        <v>0.0007124715075891674</v>
+        <v>0.002361419660900487</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>27.32010426090307</v>
+        <v>8.209583608508126</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.549107717728674</v>
+        <v>1.101988250983311</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1202627070028939</v>
+        <v>0.03948549958549563</v>
       </c>
       <c r="D6">
-        <v>0.0360125457199878</v>
+        <v>0.00851594483003737</v>
       </c>
       <c r="E6">
-        <v>6.946214842764675</v>
+        <v>1.963495120641312</v>
       </c>
       <c r="F6">
-        <v>0.5169739398188611</v>
+        <v>0.3603004674694574</v>
       </c>
       <c r="G6">
-        <v>0.0007131426417232856</v>
+        <v>0.002361703024023022</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>27.07293917151287</v>
+        <v>8.15312097578601</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.526414860186208</v>
+        <v>1.103628510007326</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1271333608138292</v>
+        <v>0.0411273077338592</v>
       </c>
       <c r="D7">
-        <v>0.03918467720235697</v>
+        <v>0.008873533325726157</v>
       </c>
       <c r="E7">
-        <v>7.422878759693248</v>
+        <v>2.060507333224308</v>
       </c>
       <c r="F7">
-        <v>0.5656178438020021</v>
+        <v>0.3586686306122857</v>
       </c>
       <c r="G7">
-        <v>0.000708437455724731</v>
+        <v>0.002359750142138239</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>28.81833265560459</v>
+        <v>8.544886672702376</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.690232952918564</v>
+        <v>1.092622547482819</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1591510763190627</v>
+        <v>0.04842089385668658</v>
       </c>
       <c r="D8">
-        <v>0.05689566873022756</v>
+        <v>0.01049280307873346</v>
       </c>
       <c r="E8">
-        <v>9.901483463866981</v>
+        <v>2.489296668993205</v>
       </c>
       <c r="F8">
-        <v>0.8382476249602746</v>
+        <v>0.3541425747761764</v>
       </c>
       <c r="G8">
-        <v>0.0006857641313618497</v>
+        <v>0.002351475907438469</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>37.63665842607668</v>
+        <v>10.2706233464948</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.634998079328369</v>
+        <v>1.053690140137604</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1591510763190627</v>
+        <v>0.0629178454185535</v>
       </c>
       <c r="D9">
-        <v>0.05689566873022756</v>
+        <v>0.01384235374686682</v>
       </c>
       <c r="E9">
-        <v>9.901483463866981</v>
+        <v>3.334721912355803</v>
       </c>
       <c r="F9">
-        <v>0.8382476249602746</v>
+        <v>0.3555394630784576</v>
       </c>
       <c r="G9">
-        <v>0.0006857641313618497</v>
+        <v>0.002336461405685986</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>37.63665842607668</v>
+        <v>13.65040725543832</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.634998079328369</v>
+        <v>1.014441380901218</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1591510763190627</v>
+        <v>0.07370754594207085</v>
       </c>
       <c r="D10">
-        <v>0.05689566873022756</v>
+        <v>0.01643593458374681</v>
       </c>
       <c r="E10">
-        <v>9.901483463866981</v>
+        <v>3.96092762727892</v>
       </c>
       <c r="F10">
-        <v>0.8382476249602746</v>
+        <v>0.3634606177371467</v>
       </c>
       <c r="G10">
-        <v>0.0006857641313618497</v>
+        <v>0.002326145213537379</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>37.63665842607668</v>
+        <v>16.13816614494073</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.634998079328369</v>
+        <v>1.010592119286486</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1591510763190627</v>
+        <v>0.07865092151085662</v>
       </c>
       <c r="D11">
-        <v>0.05689566873022756</v>
+        <v>0.01765098275109267</v>
       </c>
       <c r="E11">
-        <v>9.901483463866981</v>
+        <v>4.247476084258722</v>
       </c>
       <c r="F11">
-        <v>0.8382476249602746</v>
+        <v>0.3687042696817713</v>
       </c>
       <c r="G11">
-        <v>0.0006857641313618497</v>
+        <v>0.002321601893500613</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>37.63665842607668</v>
+        <v>17.27274156481701</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.634998079328369</v>
+        <v>1.014803359256945</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1591510763190627</v>
+        <v>0.08052828017510194</v>
       </c>
       <c r="D12">
-        <v>0.05689566873022756</v>
+        <v>0.01811672086920879</v>
       </c>
       <c r="E12">
-        <v>9.901483463866981</v>
+        <v>4.356277938613573</v>
       </c>
       <c r="F12">
-        <v>0.8382476249602746</v>
+        <v>0.3709380758484144</v>
       </c>
       <c r="G12">
-        <v>0.0006857641313618497</v>
+        <v>0.002319902498854083</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>37.63665842607668</v>
+        <v>17.70295277217264</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.634998079328369</v>
+        <v>1.017301759571865</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1591510763190627</v>
+        <v>0.08012371081301239</v>
       </c>
       <c r="D13">
-        <v>0.05689566873022756</v>
+        <v>0.01801615624838604</v>
       </c>
       <c r="E13">
-        <v>9.901483463866981</v>
+        <v>4.332831673984003</v>
       </c>
       <c r="F13">
-        <v>0.8382476249602746</v>
+        <v>0.3704457485017087</v>
       </c>
       <c r="G13">
-        <v>0.0006857641313618497</v>
+        <v>0.002320267564574052</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>37.63665842607668</v>
+        <v>17.6102709806936</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.634998079328369</v>
+        <v>1.016722734448308</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1591510763190627</v>
+        <v>0.07880526237299534</v>
       </c>
       <c r="D14">
-        <v>0.05689566873022756</v>
+        <v>0.01768918319609014</v>
       </c>
       <c r="E14">
-        <v>9.901483463866981</v>
+        <v>4.256421120383891</v>
       </c>
       <c r="F14">
-        <v>0.8382476249602746</v>
+        <v>0.3688830009195385</v>
       </c>
       <c r="G14">
-        <v>0.0006857641313618497</v>
+        <v>0.002321461663775753</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>37.63665842607668</v>
+        <v>17.3081228789905</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.634998079328369</v>
+        <v>1.014990520698319</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1591510763190627</v>
+        <v>0.07799839023530808</v>
       </c>
       <c r="D15">
-        <v>0.05689566873022756</v>
+        <v>0.01748965275975678</v>
       </c>
       <c r="E15">
-        <v>9.901483463866981</v>
+        <v>4.209657059587528</v>
       </c>
       <c r="F15">
-        <v>0.8382476249602746</v>
+        <v>0.3679584619186897</v>
       </c>
       <c r="G15">
-        <v>0.0006857641313618497</v>
+        <v>0.002322195813209367</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>37.63665842607668</v>
+        <v>17.1231278752611</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.634998079328369</v>
+        <v>1.014048584474068</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1591510763190627</v>
+        <v>0.07338522149150606</v>
       </c>
       <c r="D16">
-        <v>0.05689566873022756</v>
+        <v>0.01635728407019599</v>
       </c>
       <c r="E16">
-        <v>9.901483463866981</v>
+        <v>3.94223907419331</v>
       </c>
       <c r="F16">
-        <v>0.8382476249602746</v>
+        <v>0.3631519781038577</v>
       </c>
       <c r="G16">
-        <v>0.0006857641313618497</v>
+        <v>0.002326445102469432</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>37.63665842607668</v>
+        <v>16.06409011922676</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.634998079328369</v>
+        <v>1.010440799180458</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1591510763190627</v>
+        <v>0.07056443207879681</v>
       </c>
       <c r="D17">
-        <v>0.05689566873022756</v>
+        <v>0.01567201932365947</v>
       </c>
       <c r="E17">
-        <v>9.901483463866981</v>
+        <v>3.778652349183687</v>
       </c>
       <c r="F17">
-        <v>0.8382476249602746</v>
+        <v>0.3606320580864661</v>
       </c>
       <c r="G17">
-        <v>0.0006857641313618497</v>
+        <v>0.002329089902406649</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.63665842607668</v>
+        <v>15.41525057961525</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.634998079328369</v>
+        <v>1.009787007607656</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1591510763190627</v>
+        <v>0.06894526831625569</v>
       </c>
       <c r="D18">
-        <v>0.05689566873022756</v>
+        <v>0.01528115182679102</v>
       </c>
       <c r="E18">
-        <v>9.901483463866981</v>
+        <v>3.684716873193963</v>
       </c>
       <c r="F18">
-        <v>0.8382476249602746</v>
+        <v>0.3593362954256918</v>
       </c>
       <c r="G18">
-        <v>0.0006857641313618497</v>
+        <v>0.002330625227568882</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>37.63665842607668</v>
+        <v>15.04231616580824</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.634998079328369</v>
+        <v>1.009969284509026</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1591510763190627</v>
+        <v>0.06839759976627136</v>
       </c>
       <c r="D19">
-        <v>0.05689566873022756</v>
+        <v>0.01514935744742729</v>
       </c>
       <c r="E19">
-        <v>9.901483463866981</v>
+        <v>3.652937155020879</v>
       </c>
       <c r="F19">
-        <v>0.8382476249602746</v>
+        <v>0.3589235919255032</v>
       </c>
       <c r="G19">
-        <v>0.0006857641313618497</v>
+        <v>0.00233114749804814</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>37.63665842607668</v>
+        <v>14.91608721833109</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.634998079328369</v>
+        <v>1.010125510864384</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1591510763190627</v>
+        <v>0.07086436790828543</v>
       </c>
       <c r="D20">
-        <v>0.05689566873022756</v>
+        <v>0.01574462365408635</v>
       </c>
       <c r="E20">
-        <v>9.901483463866981</v>
+        <v>3.796050016567449</v>
       </c>
       <c r="F20">
-        <v>0.8382476249602746</v>
+        <v>0.3608843204698928</v>
       </c>
       <c r="G20">
-        <v>0.0006857641313618497</v>
+        <v>0.002328806902309966</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.63665842607668</v>
+        <v>15.48429255328728</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.634998079328369</v>
+        <v>1.009798491126219</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1591510763190627</v>
+        <v>0.07919237283314828</v>
       </c>
       <c r="D21">
-        <v>0.05689566873022756</v>
+        <v>0.01778506574900263</v>
       </c>
       <c r="E21">
-        <v>9.901483463866981</v>
+        <v>4.278856401999349</v>
       </c>
       <c r="F21">
-        <v>0.8382476249602746</v>
+        <v>0.3693351828021889</v>
       </c>
       <c r="G21">
-        <v>0.0006857641313618497</v>
+        <v>0.002321110359947632</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>37.63665842607668</v>
+        <v>17.39685424505313</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.634998079328369</v>
+        <v>1.015474409292068</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1591510763190627</v>
+        <v>0.08466691874335197</v>
       </c>
       <c r="D22">
-        <v>0.05689566873022756</v>
+        <v>0.01915169384837867</v>
       </c>
       <c r="E22">
-        <v>9.901483463866981</v>
+        <v>4.59612777059408</v>
       </c>
       <c r="F22">
-        <v>0.8382476249602746</v>
+        <v>0.3763107667697625</v>
       </c>
       <c r="G22">
-        <v>0.0006857641313618497</v>
+        <v>0.002316202766369164</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>37.63665842607668</v>
+        <v>18.65024221764463</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.634998079328369</v>
+        <v>1.024474255923622</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1591510763190627</v>
+        <v>0.08174202380692464</v>
       </c>
       <c r="D23">
-        <v>0.05689566873022756</v>
+        <v>0.01841907551798982</v>
       </c>
       <c r="E23">
-        <v>9.901483463866981</v>
+        <v>4.426618119971693</v>
       </c>
       <c r="F23">
-        <v>0.8382476249602746</v>
+        <v>0.3724506806521646</v>
       </c>
       <c r="G23">
-        <v>0.0006857641313618497</v>
+        <v>0.002318810982607245</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>37.63665842607668</v>
+        <v>17.98091679736842</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.634998079328369</v>
+        <v>1.019171000089074</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1591510763190627</v>
+        <v>0.07072875901737063</v>
       </c>
       <c r="D24">
-        <v>0.05689566873022756</v>
+        <v>0.01571178962142739</v>
       </c>
       <c r="E24">
-        <v>9.901483463866981</v>
+        <v>3.78818418379592</v>
       </c>
       <c r="F24">
-        <v>0.8382476249602746</v>
+        <v>0.3607697970931554</v>
       </c>
       <c r="G24">
-        <v>0.0006857641313618497</v>
+        <v>0.002328934800503592</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.63665842607668</v>
+        <v>15.45307840193578</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.634998079328369</v>
+        <v>1.009791564396636</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1591510763190627</v>
+        <v>0.05897318681807917</v>
       </c>
       <c r="D25">
-        <v>0.05689566873022756</v>
+        <v>0.012914943153433</v>
       </c>
       <c r="E25">
-        <v>9.901483463866981</v>
+        <v>3.10529981578776</v>
       </c>
       <c r="F25">
-        <v>0.8382476249602746</v>
+        <v>0.3539977218348227</v>
       </c>
       <c r="G25">
-        <v>0.0006857641313618497</v>
+        <v>0.002340395904093154</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>37.63665842607668</v>
+        <v>12.73584327026504</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.634998079328369</v>
+        <v>1.020847501603299</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_66/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_66/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05040950907422825</v>
+        <v>0.1684603860129386</v>
       </c>
       <c r="D2">
-        <v>0.01094241228024373</v>
+        <v>0.06327765879916214</v>
       </c>
       <c r="E2">
-        <v>2.60570920787319</v>
+        <v>10.73623489349239</v>
       </c>
       <c r="F2">
-        <v>0.3535886159855934</v>
+        <v>0.9351854647412807</v>
       </c>
       <c r="G2">
-        <v>0.002349316804360842</v>
+        <v>0.0006787483713975251</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>10.73766856433434</v>
+        <v>40.50325289219694</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.045566560175445</v>
+        <v>2.979851579911724</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04465626906139164</v>
+        <v>0.1422791544647737</v>
       </c>
       <c r="D3">
-        <v>0.009650969053296876</v>
+        <v>0.04688369636758694</v>
       </c>
       <c r="E3">
-        <v>2.268374438788129</v>
+        <v>8.534315646568331</v>
       </c>
       <c r="F3">
-        <v>0.3559578068447848</v>
+        <v>0.6843437495856506</v>
       </c>
       <c r="G3">
-        <v>0.002355671204779274</v>
+        <v>0.0006979140094375307</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>9.382611207486832</v>
+        <v>32.82733551712698</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.071878505284758</v>
+        <v>2.096623980874</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04114654460288136</v>
+        <v>0.1272144735951031</v>
       </c>
       <c r="D4">
-        <v>0.008877739012717711</v>
+        <v>0.03922322956048419</v>
       </c>
       <c r="E4">
-        <v>2.061642785782851</v>
+        <v>7.428599018953236</v>
       </c>
       <c r="F4">
-        <v>0.3586509693295596</v>
+        <v>0.5662106439230783</v>
       </c>
       <c r="G4">
-        <v>0.002359727480142701</v>
+        <v>0.0007083817146662356</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>8.549468863310494</v>
+        <v>28.83918508329532</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.092498922142084</v>
+        <v>1.692239752528167</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03972176177171605</v>
+        <v>0.1212452650100317</v>
       </c>
       <c r="D5">
-        <v>0.008567236292073233</v>
+        <v>0.03645518641206991</v>
       </c>
       <c r="E5">
-        <v>1.977468670141349</v>
+        <v>7.013462314077941</v>
       </c>
       <c r="F5">
-        <v>0.3600501848854591</v>
+        <v>0.5237434081615859</v>
       </c>
       <c r="G5">
-        <v>0.002361419660900487</v>
+        <v>0.0007124715075614296</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>8.209583608508126</v>
+        <v>27.32010426090301</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.101988250983311</v>
+        <v>1.549107717728617</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03948549958549563</v>
+        <v>0.1202627070028655</v>
       </c>
       <c r="D6">
-        <v>0.00851594483003737</v>
+        <v>0.0360125457199878</v>
       </c>
       <c r="E6">
-        <v>1.963495120641312</v>
+        <v>6.946214842764704</v>
       </c>
       <c r="F6">
-        <v>0.3603004674694574</v>
+        <v>0.5169739398188753</v>
       </c>
       <c r="G6">
-        <v>0.002361703024023022</v>
+        <v>0.0007131426417220179</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>8.15312097578601</v>
+        <v>27.07293917151276</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.103628510007326</v>
+        <v>1.526414860186208</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0411273077338592</v>
+        <v>0.1271333608139287</v>
       </c>
       <c r="D7">
-        <v>0.008873533325726157</v>
+        <v>0.03918467720247421</v>
       </c>
       <c r="E7">
-        <v>2.060507333224308</v>
+        <v>7.422878759693305</v>
       </c>
       <c r="F7">
-        <v>0.3586686306122857</v>
+        <v>0.565617843801995</v>
       </c>
       <c r="G7">
-        <v>0.002359750142138239</v>
+        <v>0.0007084374557178854</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>8.544886672702376</v>
+        <v>28.81833265560465</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.092622547482819</v>
+        <v>1.690232952918592</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04842089385668658</v>
+        <v>0.1591510763190627</v>
       </c>
       <c r="D8">
-        <v>0.01049280307873346</v>
+        <v>0.05689566873027374</v>
       </c>
       <c r="E8">
-        <v>2.489296668993205</v>
+        <v>9.90148346386701</v>
       </c>
       <c r="F8">
-        <v>0.3541425747761764</v>
+        <v>0.8382476249602746</v>
       </c>
       <c r="G8">
-        <v>0.002351475907438469</v>
+        <v>0.0006857641313346451</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>10.2706233464948</v>
+        <v>37.63665842607651</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.053690140137604</v>
+        <v>2.634998079328426</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0629178454185535</v>
+        <v>0.1591510763190627</v>
       </c>
       <c r="D9">
-        <v>0.01384235374686682</v>
+        <v>0.05689566873027374</v>
       </c>
       <c r="E9">
-        <v>3.334721912355803</v>
+        <v>9.90148346386701</v>
       </c>
       <c r="F9">
-        <v>0.3555394630784576</v>
+        <v>0.8382476249602746</v>
       </c>
       <c r="G9">
-        <v>0.002336461405685986</v>
+        <v>0.0006857641313346451</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.65040725543832</v>
+        <v>37.63665842607651</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.014441380901218</v>
+        <v>2.634998079328426</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07370754594207085</v>
+        <v>0.1591510763190627</v>
       </c>
       <c r="D10">
-        <v>0.01643593458374681</v>
+        <v>0.05689566873027374</v>
       </c>
       <c r="E10">
-        <v>3.96092762727892</v>
+        <v>9.90148346386701</v>
       </c>
       <c r="F10">
-        <v>0.3634606177371467</v>
+        <v>0.8382476249602746</v>
       </c>
       <c r="G10">
-        <v>0.002326145213537379</v>
+        <v>0.0006857641313346451</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.13816614494073</v>
+        <v>37.63665842607651</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.010592119286486</v>
+        <v>2.634998079328426</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07865092151085662</v>
+        <v>0.1591510763190627</v>
       </c>
       <c r="D11">
-        <v>0.01765098275109267</v>
+        <v>0.05689566873027374</v>
       </c>
       <c r="E11">
-        <v>4.247476084258722</v>
+        <v>9.90148346386701</v>
       </c>
       <c r="F11">
-        <v>0.3687042696817713</v>
+        <v>0.8382476249602746</v>
       </c>
       <c r="G11">
-        <v>0.002321601893500613</v>
+        <v>0.0006857641313346451</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.27274156481701</v>
+        <v>37.63665842607651</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.014803359256945</v>
+        <v>2.634998079328426</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08052828017510194</v>
+        <v>0.1591510763190627</v>
       </c>
       <c r="D12">
-        <v>0.01811672086920879</v>
+        <v>0.05689566873027374</v>
       </c>
       <c r="E12">
-        <v>4.356277938613573</v>
+        <v>9.90148346386701</v>
       </c>
       <c r="F12">
-        <v>0.3709380758484144</v>
+        <v>0.8382476249602746</v>
       </c>
       <c r="G12">
-        <v>0.002319902498854083</v>
+        <v>0.0006857641313346451</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.70295277217264</v>
+        <v>37.63665842607651</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.017301759571865</v>
+        <v>2.634998079328426</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08012371081301239</v>
+        <v>0.1591510763190627</v>
       </c>
       <c r="D13">
-        <v>0.01801615624838604</v>
+        <v>0.05689566873027374</v>
       </c>
       <c r="E13">
-        <v>4.332831673984003</v>
+        <v>9.90148346386701</v>
       </c>
       <c r="F13">
-        <v>0.3704457485017087</v>
+        <v>0.8382476249602746</v>
       </c>
       <c r="G13">
-        <v>0.002320267564574052</v>
+        <v>0.0006857641313346451</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.6102709806936</v>
+        <v>37.63665842607651</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.016722734448308</v>
+        <v>2.634998079328426</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07880526237299534</v>
+        <v>0.1591510763190627</v>
       </c>
       <c r="D14">
-        <v>0.01768918319609014</v>
+        <v>0.05689566873027374</v>
       </c>
       <c r="E14">
-        <v>4.256421120383891</v>
+        <v>9.90148346386701</v>
       </c>
       <c r="F14">
-        <v>0.3688830009195385</v>
+        <v>0.8382476249602746</v>
       </c>
       <c r="G14">
-        <v>0.002321461663775753</v>
+        <v>0.0006857641313346451</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.3081228789905</v>
+        <v>37.63665842607651</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.014990520698319</v>
+        <v>2.634998079328426</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07799839023530808</v>
+        <v>0.1591510763190627</v>
       </c>
       <c r="D15">
-        <v>0.01748965275975678</v>
+        <v>0.05689566873027374</v>
       </c>
       <c r="E15">
-        <v>4.209657059587528</v>
+        <v>9.90148346386701</v>
       </c>
       <c r="F15">
-        <v>0.3679584619186897</v>
+        <v>0.8382476249602746</v>
       </c>
       <c r="G15">
-        <v>0.002322195813209367</v>
+        <v>0.0006857641313346451</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.1231278752611</v>
+        <v>37.63665842607651</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.014048584474068</v>
+        <v>2.634998079328426</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07338522149150606</v>
+        <v>0.1591510763190627</v>
       </c>
       <c r="D16">
-        <v>0.01635728407019599</v>
+        <v>0.05689566873027374</v>
       </c>
       <c r="E16">
-        <v>3.94223907419331</v>
+        <v>9.90148346386701</v>
       </c>
       <c r="F16">
-        <v>0.3631519781038577</v>
+        <v>0.8382476249602746</v>
       </c>
       <c r="G16">
-        <v>0.002326445102469432</v>
+        <v>0.0006857641313346451</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.06409011922676</v>
+        <v>37.63665842607651</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.010440799180458</v>
+        <v>2.634998079328426</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.07056443207879681</v>
+        <v>0.1591510763190627</v>
       </c>
       <c r="D17">
-        <v>0.01567201932365947</v>
+        <v>0.05689566873027374</v>
       </c>
       <c r="E17">
-        <v>3.778652349183687</v>
+        <v>9.90148346386701</v>
       </c>
       <c r="F17">
-        <v>0.3606320580864661</v>
+        <v>0.8382476249602746</v>
       </c>
       <c r="G17">
-        <v>0.002329089902406649</v>
+        <v>0.0006857641313346451</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.41525057961525</v>
+        <v>37.63665842607651</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.009787007607656</v>
+        <v>2.634998079328426</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06894526831625569</v>
+        <v>0.1591510763190627</v>
       </c>
       <c r="D18">
-        <v>0.01528115182679102</v>
+        <v>0.05689566873027374</v>
       </c>
       <c r="E18">
-        <v>3.684716873193963</v>
+        <v>9.90148346386701</v>
       </c>
       <c r="F18">
-        <v>0.3593362954256918</v>
+        <v>0.8382476249602746</v>
       </c>
       <c r="G18">
-        <v>0.002330625227568882</v>
+        <v>0.0006857641313346451</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.04231616580824</v>
+        <v>37.63665842607651</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.009969284509026</v>
+        <v>2.634998079328426</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06839759976627136</v>
+        <v>0.1591510763190627</v>
       </c>
       <c r="D19">
-        <v>0.01514935744742729</v>
+        <v>0.05689566873027374</v>
       </c>
       <c r="E19">
-        <v>3.652937155020879</v>
+        <v>9.90148346386701</v>
       </c>
       <c r="F19">
-        <v>0.3589235919255032</v>
+        <v>0.8382476249602746</v>
       </c>
       <c r="G19">
-        <v>0.00233114749804814</v>
+        <v>0.0006857641313346451</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.91608721833109</v>
+        <v>37.63665842607651</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.010125510864384</v>
+        <v>2.634998079328426</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07086436790828543</v>
+        <v>0.1591510763190627</v>
       </c>
       <c r="D20">
-        <v>0.01574462365408635</v>
+        <v>0.05689566873027374</v>
       </c>
       <c r="E20">
-        <v>3.796050016567449</v>
+        <v>9.90148346386701</v>
       </c>
       <c r="F20">
-        <v>0.3608843204698928</v>
+        <v>0.8382476249602746</v>
       </c>
       <c r="G20">
-        <v>0.002328806902309966</v>
+        <v>0.0006857641313346451</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.48429255328728</v>
+        <v>37.63665842607651</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.009798491126219</v>
+        <v>2.634998079328426</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07919237283314828</v>
+        <v>0.1591510763190627</v>
       </c>
       <c r="D21">
-        <v>0.01778506574900263</v>
+        <v>0.05689566873027374</v>
       </c>
       <c r="E21">
-        <v>4.278856401999349</v>
+        <v>9.90148346386701</v>
       </c>
       <c r="F21">
-        <v>0.3693351828021889</v>
+        <v>0.8382476249602746</v>
       </c>
       <c r="G21">
-        <v>0.002321110359947632</v>
+        <v>0.0006857641313346451</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.39685424505313</v>
+        <v>37.63665842607651</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.015474409292068</v>
+        <v>2.634998079328426</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08466691874335197</v>
+        <v>0.1591510763190627</v>
       </c>
       <c r="D22">
-        <v>0.01915169384837867</v>
+        <v>0.05689566873027374</v>
       </c>
       <c r="E22">
-        <v>4.59612777059408</v>
+        <v>9.90148346386701</v>
       </c>
       <c r="F22">
-        <v>0.3763107667697625</v>
+        <v>0.8382476249602746</v>
       </c>
       <c r="G22">
-        <v>0.002316202766369164</v>
+        <v>0.0006857641313346451</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.65024221764463</v>
+        <v>37.63665842607651</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.024474255923622</v>
+        <v>2.634998079328426</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08174202380692464</v>
+        <v>0.1591510763190627</v>
       </c>
       <c r="D23">
-        <v>0.01841907551798982</v>
+        <v>0.05689566873027374</v>
       </c>
       <c r="E23">
-        <v>4.426618119971693</v>
+        <v>9.90148346386701</v>
       </c>
       <c r="F23">
-        <v>0.3724506806521646</v>
+        <v>0.8382476249602746</v>
       </c>
       <c r="G23">
-        <v>0.002318810982607245</v>
+        <v>0.0006857641313346451</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.98091679736842</v>
+        <v>37.63665842607651</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.019171000089074</v>
+        <v>2.634998079328426</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.07072875901737063</v>
+        <v>0.1591510763190627</v>
       </c>
       <c r="D24">
-        <v>0.01571178962142739</v>
+        <v>0.05689566873027374</v>
       </c>
       <c r="E24">
-        <v>3.78818418379592</v>
+        <v>9.90148346386701</v>
       </c>
       <c r="F24">
-        <v>0.3607697970931554</v>
+        <v>0.8382476249602746</v>
       </c>
       <c r="G24">
-        <v>0.002328934800503592</v>
+        <v>0.0006857641313346451</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.45307840193578</v>
+        <v>37.63665842607651</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.009791564396636</v>
+        <v>2.634998079328426</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05897318681807917</v>
+        <v>0.1591510763190627</v>
       </c>
       <c r="D25">
-        <v>0.012914943153433</v>
+        <v>0.05689566873027374</v>
       </c>
       <c r="E25">
-        <v>3.10529981578776</v>
+        <v>9.90148346386701</v>
       </c>
       <c r="F25">
-        <v>0.3539977218348227</v>
+        <v>0.8382476249602746</v>
       </c>
       <c r="G25">
-        <v>0.002340395904093154</v>
+        <v>0.0006857641313346451</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.73584327026504</v>
+        <v>37.63665842607651</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.020847501603299</v>
+        <v>2.634998079328426</v>
       </c>
     </row>
   </sheetData>
